--- a/Service.MedicalRecord/wwwroot/layout/excel/deliverResults/EnvioResultados.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/deliverResults/EnvioResultados.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\workspace\axsis\LabRamos\API\Service.MedicalRecord\wwwroot\layout\excel\deliverResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.MedicalRecord\wwwroot\layout\excel\deliverResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764A169F-FC6C-4A6D-A1C8-F96BE6ADD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20B9FE4-FED2-4DDC-BD1A-CFDB54AD01C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expedientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Envío de resultados" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Expedientes">Expedientes!$A$4:$G$7</definedName>
-    <definedName name="Expedientes_Estudios">Expedientes!$A$5:$G$6</definedName>
+    <definedName name="Expedientes">'Envío de resultados'!$A$4:$G$7</definedName>
+    <definedName name="Expedientes_Estudios">'Envío de resultados'!$A$5:$G$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -232,117 +232,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -771,22 +661,22 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="45.1796875" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -798,7 +688,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -821,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -844,7 +734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -862,22 +752,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
@@ -886,27 +776,27 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Clave"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Medio Solicitado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Fecha de Entrega"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Estatus"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Registro"</formula>
     </cfRule>
   </conditionalFormatting>
